--- a/ocms/target/test-classes/DownloadedFiles/Agent Team Management.xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/Agent Team Management.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">BENGTETH\Administrator</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korea</t>
   </si>
   <si>
@@ -73,6 +76,12 @@
     <t xml:space="preserve">Korea&gt;Soui</t>
   </si>
   <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA&gt;EST</t>
+  </si>
+  <si>
     <t xml:space="preserve">South</t>
   </si>
   <si>
@@ -88,18 +97,24 @@
     <t xml:space="preserve">India&gt;South&gt;Bengaluru</t>
   </si>
   <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA&gt;EST&gt;Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany&gt;Munich&gt;Support</t>
+  </si>
+  <si>
     <t xml:space="preserve">R&amp;D</t>
   </si>
   <si>
     <t xml:space="preserve">Korea&gt;Soui&gt;R&amp;D</t>
   </si>
   <si>
-    <t xml:space="preserve">Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany&gt;Munich&gt;Support</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development</t>
   </si>
   <si>
@@ -115,16 +130,16 @@
     <t xml:space="preserve">Korea&gt;Soui&gt;R&amp;D&gt;HR</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA&gt;EST&gt;Chicago&gt;P</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProductQA</t>
   </si>
   <si>
     <t xml:space="preserve">India&gt;South&gt;Bengaluru&gt;ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bengaluru&gt;Test2</t>
   </si>
 </sst>
 </file>
@@ -255,7 +270,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>43487.434375</v>
+        <v>43494.67891203704</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -272,7 +287,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>43488.605162037034</v>
+        <v>43487.434375</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -289,194 +304,245 @@
         <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>43488.803564814814</v>
+        <v>43488.605162037034</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
-        <v>43488.80370370371</v>
+        <v>43488.803564814814</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>43488.605416666665</v>
+        <v>43488.80370370371</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>43487.43449074074</v>
+        <v>43488.605416666665</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>43486.873460648145</v>
+        <v>43487.43449074074</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>43486.87362268518</v>
+        <v>43494.679027777776</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>43487.43462962963</v>
+        <v>43486.873460648145</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>43488.605833333335</v>
+        <v>43486.87362268518</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>43488.80388888889</v>
+        <v>43494.67917824074</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="2">
-        <v>43487.43497685185</v>
+        <v>43488.605833333335</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2">
-        <v>43486.87378472222</v>
+        <v>43487.43462962963</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43488.80388888889</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2">
-        <v>43486.88753472222</v>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43487.43497685185</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43494.688252314816</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43486.87378472222</v>
       </c>
     </row>
   </sheetData>
